--- a/medicine/Pharmacie/Gabriel_Sánchez_de_la_Cuesta/Gabriel_Sánchez_de_la_Cuesta.xlsx
+++ b/medicine/Pharmacie/Gabriel_Sánchez_de_la_Cuesta/Gabriel_Sánchez_de_la_Cuesta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel_S%C3%A1nchez_de_la_Cuesta</t>
+          <t>Gabriel_Sánchez_de_la_Cuesta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Sánchez de la Cuesta y Gutiérrez de Castañeda (Séville, 1er septembre 1907 - Séville 31 décembre 1982) médecin pharmacologue clinique et historien de la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel_S%C3%A1nchez_de_la_Cuesta</t>
+          <t>Gabriel_Sánchez_de_la_Cuesta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils du général et Gentilhomme de la chambre avec exercice Felipe Sánchez de la Cuesta y Navarro. Il est licencié en Médecine et Chirurgie à l'Université de Grenade, avec prix extraordinaire, passant ensuite son doctorat à l'Université Centrale de Madrid et achevant sa formation de manière décisive à Bruxelles auprès du professeur Edgar Zunz (de)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils du général et Gentilhomme de la chambre avec exercice Felipe Sánchez de la Cuesta y Navarro. Il est licencié en Médecine et Chirurgie à l'Université de Grenade, avec prix extraordinaire, passant ensuite son doctorat à l'Université Centrale de Madrid et achevant sa formation de manière décisive à Bruxelles auprès du professeur Edgar Zunz (de).
 Dès le début de son travail de recherche, il s'intéressa à  la Pharmacologie et à la Thérapeutique en publiant en 1935 plusieurs travaux dans des revues scientifiques étrangères. En 1936, il gagne par opposition la chaire de Pharmacologie et de Thérapeutique de l'Université de Cadix, et réussira à être transféré à celle de Séville en 1939.
 Son importance dans la Médecine contemporaine espagnole vient de ce qu'il fut un pionnier de l'introduction de la pharmacologie clinique, en particulier dans tout ce qui se réfère à la recherche thérapeutique et aux essais cliniques contrôlés, si élémentaires dans la Médecine actuelle.
 En 1946, il fut élu académicien de la Real Academia de Medicina de Sevilla, et devint son président de 1973 à 1982. Il fut nommé également académicien de la Real Academia Nacional de Medicina et président et organisateur du Ier Congrès Mondial des Académies de Médecine tenu à Séville en 1977.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriel_S%C3%A1nchez_de_la_Cuesta</t>
+          <t>Gabriel_Sánchez_de_la_Cuesta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>El general español don Felipe Sánchez de la Cuesta y Navarro, Séville, 1938, (Le général espagnol don Felipe Sánchez de la Cuesta y Navarro) ;
 Introducción al Estudio de la Terapéutica, (Introduction à l'étude de la thérapeutique) ;
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gabriel_S%C3%A1nchez_de_la_Cuesta</t>
+          <t>Gabriel_Sánchez_de_la_Cuesta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour son travail d'écrivain et d'historien, il fut nommé académicien de la Académie royale espagnole de la Langue, de la Real Academia de Buenas Letras de Sevilla (es), de l'Académie royale d'Histoire, de celle des Beaux-Arts de Grenade (es) et des Belles Lettres et Nobles Arts de Cordoue (es) et membre de l'Instituto de Cultura Hispánica de Madrid.
 </t>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabriel_S%C3%A1nchez_de_la_Cuesta</t>
+          <t>Gabriel_Sánchez_de_la_Cuesta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,7 +643,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçut la Grand-Croix de l'Ordre d'Alphonse X le Sage et celle de l'Orden Civil de Sanidad (es).
 </t>
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabriel_S%C3%A1nchez_de_la_Cuesta</t>
+          <t>Gabriel_Sánchez_de_la_Cuesta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue de Séville porte son nom.
 </t>
